--- a/dtpu_configurations/only_integer16/50mhz/mxu_8x8/utilization.xlsx
+++ b/dtpu_configurations/only_integer16/50mhz/mxu_8x8/utilization.xlsx
@@ -154,13 +154,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>20.005638122558594</v>
+        <v>23.449247360229492</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>5.712643623352051</v>
+        <v>6.0804595947265625</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>13.816729545593262</v>
+        <v>15.937030792236328</v>
       </c>
       <c r="E2" t="n" s="4">
         <v>57.85714340209961</v>
